--- a/liste2.xlsx
+++ b/liste2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://namobilites.sharepoint.com/Documents partages/04_DonneesMobilité/30_Outils/Outils data/SIG/EPCI/Cartographie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{8E5655E7-52F9-4B88-9191-96F4E8A74C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CD0B47C-A411-40EF-88A1-37DF142E12C9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{8E5655E7-52F9-4B88-9191-96F4E8A74C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DEF5429-95C1-4DD9-BE16-AEE79B53BDAF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="36030" yWindow="7830" windowWidth="7080" windowHeight="3675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EPCI NA" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="270">
   <si>
     <t>LIBEPCI</t>
   </si>
@@ -745,9 +745,6 @@
   </si>
   <si>
     <t>SD vélo</t>
-  </si>
-  <si>
-    <t>OUI ?</t>
   </si>
   <si>
     <t>epci_code</t>
@@ -853,6 +850,24 @@
   </si>
   <si>
     <t>COM Haute-Gironde</t>
+  </si>
+  <si>
+    <t>PDMs avec mise en œuvre en 2023 + extension du VM arbitré en 07/2023</t>
+  </si>
+  <si>
+    <t>Projet de territoire 2021-2028 - PEM Ste Foix la Grande</t>
+  </si>
+  <si>
+    <t>Projet de territoire 2022-2032 - offre de mobilité nord-poitou</t>
+  </si>
+  <si>
+    <t>Navette gare La Crèche vers ZA Atlansèvre (test depuis 10/2022)</t>
+  </si>
+  <si>
+    <t>Projet de territoire 2021-2026 - PEM à Langon</t>
+  </si>
+  <si>
+    <t>COM Vézère-Auvézère</t>
   </si>
 </sst>
 </file>
@@ -1348,9 +1363,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E582B0-4697-461F-9BCC-99ABCCB377B8}">
   <dimension ref="A1:O158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O126" sqref="O126"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O153" sqref="O153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1364,9 +1379,9 @@
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="89.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -1404,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>10</v>
@@ -1451,7 +1466,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>17</v>
@@ -1487,7 +1502,7 @@
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3"/>
@@ -1796,7 +1811,7 @@
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="3"/>
@@ -1876,7 +1891,7 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>224</v>
@@ -1919,7 +1934,7 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>225</v>
@@ -1962,7 +1977,7 @@
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="3"/>
@@ -2120,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="3"/>
@@ -2158,7 +2173,7 @@
         <v>50</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>58</v>
@@ -2242,7 +2257,7 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="3"/>
@@ -2324,7 +2339,7 @@
         <v>64</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>221</v>
@@ -2445,7 +2460,7 @@
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="3"/>
@@ -2599,7 +2614,7 @@
         <v>34</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="3"/>
@@ -3185,12 +3200,12 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -3421,9 +3436,7 @@
       <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3465,7 +3478,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4015,7 +4028,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="3"/>
@@ -4153,7 +4166,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="3"/>
@@ -4289,7 +4302,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4425,13 +4438,13 @@
         <v>95</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4501,7 +4514,9 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
+      <c r="N86" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="O86" s="3"/>
     </row>
     <row r="87" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4569,7 +4584,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="3"/>
@@ -4708,7 +4723,9 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="3"/>
+      <c r="O92" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="93" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -4875,7 +4892,9 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="3"/>
+      <c r="O97" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="98" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -4907,7 +4926,9 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
+      <c r="N98" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4973,7 +4994,9 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
+      <c r="N100" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5138,7 +5161,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="3"/>
@@ -5245,7 +5268,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="3"/>
@@ -5286,7 +5309,9 @@
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
+      <c r="N109" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="O109" s="3"/>
     </row>
     <row r="110" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5389,7 +5414,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="3"/>
@@ -5424,7 +5449,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="3"/>
@@ -5527,7 +5552,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="3"/>
@@ -5564,9 +5589,11 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="N117" s="1"/>
+        <v>254</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="O117" s="3"/>
     </row>
     <row r="118" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5852,7 +5879,7 @@
         <v>180</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -5885,7 +5912,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="3"/>
@@ -5955,7 +5982,7 @@
         <v>95</v>
       </c>
       <c r="M128" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="3"/>
@@ -6066,7 +6093,7 @@
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N131" s="1"/>
       <c r="O131" s="3"/>
@@ -6373,7 +6400,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N140" s="1"/>
       <c r="O140" s="3"/>
@@ -6408,7 +6435,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N141" s="1"/>
       <c r="O141" s="3"/>
@@ -6476,7 +6503,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N143" s="1"/>
       <c r="O143" s="3"/>
@@ -6783,7 +6810,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
       <c r="O152" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -6819,7 +6846,9 @@
       <c r="N153" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O153" s="3"/>
+      <c r="O153" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="154" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -6853,7 +6882,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
       <c r="O154" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -7247,15 +7276,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="94aaf9f0-1593-4af8-9d02-641d1fa49c3f">
@@ -7264,6 +7284,15 @@
     <TaxCatchAll xmlns="963ed221-ef69-44f8-91e6-a6cecb46ef20" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7286,14 +7315,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A88837B7-7DAD-454B-A048-F49E72D47A0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F8F94AB-79CA-485E-9E36-3402C2FD9B14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7302,4 +7323,12 @@
     <ds:schemaRef ds:uri="963ed221-ef69-44f8-91e6-a6cecb46ef20"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A88837B7-7DAD-454B-A048-F49E72D47A0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>